--- a/MOMENTUM! 2024-C/可视化需求/1.3 Q (PCA)/主成分分析矩阵.xlsx
+++ b/MOMENTUM! 2024-C/可视化需求/1.3 Q (PCA)/主成分分析矩阵.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15175\Desktop\MCM-ICM-Learning\MOMENTUM! 2024-C\可视化需求\1.3 Q (PCA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F62BC7-5516-4FAA-A4B0-0502A921F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB73FE6-E844-4F54-8265-E3C61C7E9264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{80870D50-1282-4E56-A554-C6B896C6E216}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{80870D50-1282-4E56-A554-C6B896C6E216}"/>
   </bookViews>
   <sheets>
     <sheet name="V " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>who_to_serve</t>
   </si>
@@ -119,6 +119,114 @@
   </si>
   <si>
     <t>who_to_serve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p2_ace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p1_winner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p2_winner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p1_break_pt_won</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-p1_break_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-p1_ace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-p2_unf_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-p1_net_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-p1_net_pt_won</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-p2_net_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-p2_net_pt_won</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-p1_unf_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-p2_break_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-p2_break_pt_won</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-p2_break_pt_missed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-p1_break_pt_missed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-p1_serve_speed_ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-p2_serve_speed_ave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-who_to_serve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-width_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-width_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-depth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-depth_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-depth_return_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-depth_return_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-consumption_of_strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-consumption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74D77CD-59DD-4094-A99D-3F5917503197}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -574,7 +682,7 @@
     <col min="16" max="16" width="41.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -594,7 +702,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -613,8 +721,14 @@
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>-0.32181488590987001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -633,8 +747,14 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3">
+        <v>0.40389353423805402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -653,8 +773,14 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>-0.26381579113626502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -673,8 +799,14 @@
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5">
+        <v>0.27580470047775801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -697,8 +829,14 @@
       </c>
       <c r="K6"/>
       <c r="L6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6">
+        <v>0.35696950581120901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -721,8 +859,14 @@
         <v>0.33491357350367101</v>
       </c>
       <c r="L7"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7">
+        <v>-0.1765872225935711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
@@ -745,8 +889,14 @@
         <v>-0.41139489488970299</v>
       </c>
       <c r="L8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8">
+        <v>0.41864196687958877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -769,8 +919,14 @@
         <v>-0.390154941623228</v>
       </c>
       <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T9" t="s">
+        <v>35</v>
+      </c>
+      <c r="U9">
+        <v>-0.51424361861212875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -794,8 +950,14 @@
       <c r="L10" s="5">
         <v>-0.34920630747282499</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10">
+        <v>-0.48769367702903499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -819,8 +981,14 @@
       <c r="L11" s="5">
         <v>-0.40073151833050902</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T11" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11">
+        <v>0.36995107152680751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
@@ -839,8 +1007,14 @@
       <c r="J12"/>
       <c r="K12"/>
       <c r="L12"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U12">
+        <v>0.30768978032015126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -859,8 +1033,14 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13">
+        <v>0.32115967871750101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -879,8 +1059,14 @@
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14">
+        <v>0.41575087446937298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -899,8 +1085,14 @@
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T15" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15">
+        <v>0.32751722010697698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
@@ -919,8 +1111,14 @@
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U16">
+        <v>0.37395820525199203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -939,8 +1137,14 @@
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T17" t="s">
+        <v>43</v>
+      </c>
+      <c r="U17">
+        <v>0.31058142297677099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
@@ -959,8 +1163,14 @@
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T18" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18">
+        <v>0.34515126282820002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -979,8 +1189,14 @@
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19">
+        <v>0.44399161733095299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -999,8 +1215,14 @@
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>46</v>
+      </c>
+      <c r="U20">
+        <v>-0.41289059004921302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1019,8 +1241,14 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21">
+        <v>0.368383614008642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
@@ -1039,8 +1267,14 @@
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T22" t="s">
+        <v>48</v>
+      </c>
+      <c r="U22">
+        <v>-0.37181858960483799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
@@ -1059,8 +1293,14 @@
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T23" t="s">
+        <v>49</v>
+      </c>
+      <c r="U23">
+        <v>0.39203437814872599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1079,8 +1319,14 @@
       <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T24" t="s">
+        <v>50</v>
+      </c>
+      <c r="U24">
+        <v>-0.39028068098762497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
@@ -1099,8 +1345,14 @@
       <c r="J25"/>
       <c r="K25"/>
       <c r="L25"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T25" t="s">
+        <v>51</v>
+      </c>
+      <c r="U25">
+        <v>0.34493405983893199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
@@ -1125,8 +1377,14 @@
       <c r="L26" s="2">
         <v>0.28687147833634202</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T26" t="s">
+        <v>52</v>
+      </c>
+      <c r="U26">
+        <v>-0.34266763947301099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -1151,14 +1409,26 @@
       <c r="L27" s="2">
         <v>0.28601558141024003</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="T27" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27">
+        <v>0.28782823223414439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F28"/>
       <c r="G28"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
+      <c r="T28" t="s">
+        <v>54</v>
+      </c>
+      <c r="U28">
+        <v>0.2943144409964622</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
